--- a/data/excel/Dia-De-Sorte.xlsx
+++ b/data/excel/Dia-De-Sorte.xlsx
@@ -61684,6 +61684,468 @@
         <x:v/>
       </x:c>
     </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>793</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>05/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>02</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>04</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Julho</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$4.268,70</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1019</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14150</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>39703</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.435.645,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$400.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>794</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>08/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Agosto</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>SAO BRAS DO SUACUI/MG</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$400.382,32</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.951,18</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1259</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16228</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>61988</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Não</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.517.467,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$150.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>795</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Junho</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.599,14</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>963</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12040</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>33512</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.257.457,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$400.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>12/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>05</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Fevereiro</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.925,09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1149</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14520</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>48420</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.476.920,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$600.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>797</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>15/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>07</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>09</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Abril</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2.020,22</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1467</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>16873</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>48626</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.429.560,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$800.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="n">
+        <x:v>798</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>17/08/2023</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>01</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>06</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Maio</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$0,00</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$3.404,73</x:v>
+      </x:c>
+      <x:c t="n">
+        <x:v>1050</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$25,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>14215</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$5,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>52077</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$2,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Sim</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.646.847,50</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>R$1.000.000,00</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v/>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:phoneticPr fontId="2" type="noConversion"/>
   <x:pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
